--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bensonwu/Documents/UCLA/2021-2022/BIOSTAT_203A/Project1/BIOSTAT-203A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBF8198-41A2-5C47-BD65-F28F2791FE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBE4B86-C4D1-EC45-B5D1-8018D2E3D0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="16140" windowHeight="15980" xr2:uid="{C09795BC-02DB-B343-93F0-7A7FE827EA16}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="16140" windowHeight="15980" activeTab="3" xr2:uid="{C09795BC-02DB-B343-93F0-7A7FE827EA16}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
   <si>
     <t>Age</t>
   </si>
@@ -122,9 +122,6 @@
     <t>0.29 (2.71)</t>
   </si>
   <si>
-    <t>&lt;.0001</t>
-  </si>
-  <si>
     <t>Body burden in nCi</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t>38.46 (117.5)</t>
-  </si>
-  <si>
-    <t>0.71 (2.11))</t>
   </si>
   <si>
     <t>1.61 (6.27)</t>
@@ -207,12 +201,15 @@
       <t xml:space="preserve"> Demographics of the LANL sample.</t>
     </r>
   </si>
+  <si>
+    <t>0.71 (2.11)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +279,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF112277"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -332,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,9 +347,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,6 +403,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,10 +429,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AEB47C-870E-F149-BCDB-6E660888D04E}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -738,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="39" customHeight="1">
@@ -764,10 +770,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
@@ -776,91 +782,91 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>17.16</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>30.87</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>13.62</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>10.69</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>43.66</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>28.43</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>3.73</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>0.99</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>17.16</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>12.11</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>3.92</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>12.44</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>0.75</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>4.46</v>
       </c>
       <c r="E13" s="1"/>
@@ -872,52 +878,52 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="6"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>0.21</v>
       </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="6"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>1.08</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>0</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>2.17</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>100</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>96.54</v>
       </c>
       <c r="E18" s="1"/>
@@ -934,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5884A5BD-785B-1749-810C-CA63B1153F9D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:E6"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -952,20 +958,20 @@
     <row r="3" spans="1:5" ht="44" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -974,16 +980,16 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>-7.96</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>28</v>
+      <c r="A5" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
@@ -991,7 +997,7 @@
       <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>-4.07</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -999,20 +1005,20 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>-4.53</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>27</v>
+      <c r="E6" s="21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1030,197 +1036,197 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="28" customWidth="1"/>
-    <col min="3" max="4" width="12.83203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="12.83203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="23"/>
+      <c r="A1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="34">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="25"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>31.43</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>18.95</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="25"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>8.57</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>10.49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>34.29</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>31.3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>5.71</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>0.85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>14.29</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>20.98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="25"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>5.71</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>13.54</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>0</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>3.89</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="25"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>0</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>1.35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="25"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <v>0</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>4.57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>100</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>94.08</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="29"/>
+      <c r="B20" s="28"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1234,17 +1240,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F8027B-DE0E-D144-A7EF-62FEE104A34B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="5" width="14.83203125" customWidth="1"/>
+    <col min="2" max="5" width="14.83203125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1261,46 +1269,46 @@
     <row r="3" spans="1:5" ht="34">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="33">
+        <v>-1.95</v>
+      </c>
+      <c r="E4" s="19">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1">
-        <v>-1.95</v>
-      </c>
-      <c r="E4" s="20">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D5" s="33">
         <v>-0.93</v>
       </c>
       <c r="E5" s="3">
@@ -1308,20 +1316,20 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="22">
+      <c r="A6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="E6" s="22">
-        <v>0.45500000000000002</v>
+      <c r="E6" s="21">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
